--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A0306-3E0C-4AF3-8B63-EF8C2E131D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вода" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="179021" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -72,9 +73,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3 Сакко </t>
-  </si>
-  <si>
     <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
   </si>
   <si>
     <t>Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 Альче </t>
   </si>
   <si>
     <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
@@ -123,9 +118,6 @@
     <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7 Альче </t>
-  </si>
-  <si>
     <t>Для пиццы</t>
   </si>
   <si>
@@ -136,9 +128,6 @@
   </si>
   <si>
     <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7 Сакко </t>
   </si>
   <si>
     <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
@@ -251,11 +240,23 @@
   <si>
     <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
   </si>
+  <si>
+    <t xml:space="preserve">2.7, Сакко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7, Альче </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3, Сакко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6, Альче </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +362,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -785,33 +786,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.6328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <f t="shared" ref="A2:A21" ca="1" si="0">IF(J2="-", "", 1 + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M2)))))</f>
         <v>81</v>
@@ -862,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4">
         <v>1000</v>
@@ -871,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4">
         <v>99</v>
@@ -900,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -910,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4">
         <v>1000</v>
@@ -919,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4">
         <v>302</v>
@@ -948,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4">
         <v>1000</v>
@@ -967,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4">
         <v>33</v>
@@ -996,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -1006,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4">
         <v>1000</v>
@@ -1015,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
         <v>243</v>
@@ -1044,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -1054,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4">
         <v>1000</v>
@@ -1063,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4">
         <v>103</v>
@@ -1092,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -1102,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>1000</v>
@@ -1111,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4">
         <v>53</v>
@@ -1140,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>81</v>
@@ -1150,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -1159,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4">
         <v>167</v>
@@ -1188,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1239,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>82</v>
@@ -1249,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4">
         <v>1000</v>
@@ -1258,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
         <v>26</v>
@@ -1287,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>82</v>
@@ -1297,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4">
         <v>1000</v>
@@ -1306,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4">
         <v>974</v>
@@ -1335,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1386,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>83</v>
@@ -1395,17 +1396,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
+      <c r="C13" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D13" s="12">
         <v>1000</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="12">
         <v>1000</v>
@@ -1434,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1485,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>84</v>
@@ -1494,17 +1495,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>23</v>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="12">
         <v>1000</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="12">
         <v>1000</v>
@@ -1533,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1584,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>85</v>
@@ -1593,17 +1594,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>15</v>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="12">
         <v>1000</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="G17" s="12">
         <v>679</v>
@@ -1632,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>85</v>
@@ -1641,17 +1642,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>15</v>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="12">
         <v>1000</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="12">
         <v>28</v>
@@ -1680,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>85</v>
@@ -1689,17 +1690,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>15</v>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="12">
         <v>1000</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="12">
         <v>198</v>
@@ -1728,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>85</v>
@@ -1737,17 +1738,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>15</v>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="12">
         <v>1000</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="12">
         <v>95</v>
@@ -1776,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1827,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1854,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1881,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1908,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1935,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1962,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1989,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="8" t="str">
         <f t="shared" ref="B28:B59" ca="1" si="7">IF(F28="","",IF(J28="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M28))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M28))))))</f>
@@ -2016,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2043,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2070,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2097,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2124,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2178,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2205,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2232,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2259,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2286,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2313,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2340,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2367,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2394,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2446,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2472,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2524,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2550,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2576,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2602,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2628,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2654,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2680,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2732,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2758,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2810,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
@@ -2836,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="str">
         <f t="shared" ref="B60:B71" ca="1" si="13">IF(F60="","",IF(J60="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M60))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M60))))))</f>
         <v/>
@@ -2862,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -2888,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -2914,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -2940,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -2966,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3018,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3044,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3070,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3096,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3122,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
@@ -3148,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H72" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3170,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H73" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3192,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H74" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3214,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H75" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3236,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H76" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3258,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H77" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3280,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H78" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3302,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H79" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3324,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H80" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3346,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H81" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3368,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H82" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3390,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H83" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3412,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H84" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3434,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H85" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H86" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3478,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H87" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3500,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H88" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H89" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3544,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H90" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3566,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H91" s="1" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
@@ -3588,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H92" s="1" t="str">
         <f t="shared" ref="H92:H116" ca="1" si="21">IF(N92 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N92)</f>
         <v/>
@@ -3610,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H93" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3632,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H94" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3654,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H95" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3676,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H96" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3698,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H97" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3720,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H98" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3742,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H99" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3764,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H100" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3786,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H101" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3808,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H102" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3830,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H103" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3852,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H104" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3874,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H105" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3896,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H106" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3918,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H107" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3940,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H108" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3962,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H109" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -3984,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H110" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4006,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H111" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4028,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H112" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4050,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H113" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4072,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H114" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4094,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H115" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4116,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H116" s="1" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -4154,7 +4155,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -4170,33 +4171,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.6328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="4" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <f ca="1">IF(J2="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M2)))))</f>
         <v>166</v>
@@ -4247,16 +4248,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D2" s="14">
         <v>850</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="14">
         <v>850</v>
@@ -4285,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f ca="1">IF(J3="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M3)))))</f>
         <v>-</v>
@@ -4336,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <f ca="1">IF(J4="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M4)))))</f>
         <v>167</v>
@@ -4346,16 +4347,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D4" s="14">
         <v>850</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="14">
         <v>850</v>
@@ -4384,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f ca="1">IF(J5="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M5)))))</f>
         <v>-</v>
@@ -4435,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <f ca="1">IF(J6="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M6)))))</f>
         <v>168</v>
@@ -4445,16 +4446,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D6" s="14">
         <v>850</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" s="14">
         <v>850</v>
@@ -4483,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f ca="1">IF(J7="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M7)))))</f>
         <v>-</v>
@@ -4534,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <f ca="1">IF(J8="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M8)))))</f>
         <v>169</v>
@@ -4544,16 +4545,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D8" s="14">
         <v>850</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" s="14">
         <v>850</v>
@@ -4582,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f ca="1">IF(J9="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M9)))))</f>
         <v>-</v>
@@ -4633,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <f ca="1">IF(J10="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M10)))))</f>
         <v>170</v>
@@ -4643,16 +4644,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D10" s="14">
         <v>850</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="14">
         <v>850</v>
@@ -4681,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f ca="1">IF(J11="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M11)))))</f>
         <v>-</v>
@@ -4732,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <f ca="1">IF(J12="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M12)))))</f>
         <v>171</v>
@@ -4742,16 +4743,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14">
         <v>850</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" s="14">
         <v>842</v>
@@ -4780,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <f ca="1">IF(J13="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M13)))))</f>
         <v>171</v>
@@ -4790,16 +4791,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D13" s="14">
         <v>850</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="14">
         <v>8</v>
@@ -4828,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f ca="1">IF(J14="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M14)))))</f>
         <v>-</v>
@@ -4879,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <f ca="1">IF(J15="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M15)))))</f>
         <v>172</v>
@@ -4889,16 +4890,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D15" s="14">
         <v>850</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="14">
         <v>850</v>
@@ -4927,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f ca="1">IF(J16="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M16)))))</f>
         <v>-</v>
@@ -4978,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <f ca="1">IF(J17="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M17)))))</f>
         <v>173</v>
@@ -4988,16 +4989,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D17" s="18">
         <v>850</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" s="18">
         <v>850</v>
@@ -5026,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f ca="1">IF(J18="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M18)))))</f>
         <v>-</v>
@@ -5077,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <f ca="1">IF(J19="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M19)))))</f>
         <v>174</v>
@@ -5087,16 +5088,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D19" s="18">
         <v>850</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="18">
         <v>659</v>
@@ -5125,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <f ca="1">IF(J20="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M20)))))</f>
         <v>174</v>
@@ -5135,16 +5136,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D20" s="18">
         <v>850</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="18">
         <v>191</v>
@@ -5173,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f ca="1">IF(J21="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M21)))))</f>
         <v>-</v>
@@ -5224,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5251,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5278,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5305,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5332,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5359,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5386,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5413,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5440,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5467,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5494,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5521,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5548,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5575,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="8" t="str">
         <f t="shared" ref="B35:B66" ca="1" si="18">IF(F35="","",IF(J35="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M35))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M35))))))</f>
@@ -5602,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5629,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5656,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5683,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5710,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5737,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5764,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5791,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5818,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5872,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5899,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5926,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5953,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5980,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6006,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6032,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6058,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6084,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6136,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6162,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6188,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6214,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6240,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6266,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6292,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6318,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6344,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6370,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6396,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
@@ -6422,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="str">
         <f t="shared" ref="B67:B78" ca="1" si="24">IF(F67="","",IF(J67="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M67))))))</f>
         <v/>
@@ -6448,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6474,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6500,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6526,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6552,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6578,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6604,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6630,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6656,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6682,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6708,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
@@ -6734,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H79" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6756,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H80" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6778,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H81" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6800,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H82" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6822,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H83" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6844,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H84" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6866,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H85" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6888,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H86" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6910,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H87" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6932,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H88" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6954,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H89" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6976,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H90" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -6998,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H91" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7020,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H92" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7042,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H93" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7064,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H94" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7086,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H95" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7108,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H96" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7130,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H97" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7152,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H98" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7174,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H99" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7196,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H100" s="1" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -7218,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H101" s="1" t="str">
         <f t="shared" ref="H101:H123" ca="1" si="35">IF(N101 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N101)</f>
         <v/>
@@ -7240,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H102" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7262,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H103" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7284,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H104" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7306,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H105" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7328,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H106" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7350,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H107" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7372,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H108" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7394,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H109" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7416,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H110" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7438,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H111" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7460,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H112" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7482,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H113" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7504,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H114" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7526,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H115" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7548,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H116" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7570,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H117" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7592,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H118" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7614,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H119" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7636,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H120" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7658,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H121" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7680,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H122" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7702,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="8:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H123" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -7760,7 +7761,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -7776,148 +7777,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -7929,162 +7930,162 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A0306-3E0C-4AF3-8B63-EF8C2E131D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438B778-C454-44F1-A87E-5ACD538529A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4178,7 +4178,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438B778-C454-44F1-A87E-5ACD538529A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AFE75-5A9E-4539-83BE-69607C864EF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
   <si>
     <t>Номер партии</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.6, Альче </t>
+  </si>
+  <si>
+    <t>2.7, Альче, без лактозы</t>
   </si>
 </sst>
 </file>
@@ -4178,7 +4181,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4644,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="14">
         <v>850</v>
@@ -4653,7 +4656,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10" s="14">
         <v>850</v>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AFE75-5A9E-4539-83BE-69607C864EF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08282244-7BA3-4B0D-BFE9-2BB81F4088FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -796,7 +796,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4">
         <v>167</v>
@@ -4181,7 +4181,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4359,7 +4359,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G4" s="14">
         <v>850</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <f ca="1">IF(J6="-", "-", 1 + MAX(Вода!$A$2:$A$94) + 80 + SUM(INDIRECT(ADDRESS(2,COLUMN(M6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M6)))))</f>
         <v>168</v>
@@ -4458,7 +4458,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G6" s="14">
         <v>850</v>
@@ -4557,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G8" s="14">
         <v>850</v>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C779CD0-B9F9-4E52-A1FD-78CF90D50381}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5EA2E-D94A-4452-9F82-F173798EE134}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="104">
   <si>
     <t>Тип варки</t>
   </si>
@@ -346,6 +346,12 @@
   <si>
     <t>0.46</t>
   </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>8000, 8000</t>
+  </si>
 </sst>
 </file>
 
@@ -489,7 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -515,6 +521,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,14 +698,26 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Типы варок"/>
+      <sheetName val="файл остатки"/>
+      <sheetName val="планирование суточное"/>
+      <sheetName val="Вода"/>
+      <sheetName val="Соль"/>
+      <sheetName val="Дополнительная фасовка"/>
       <sheetName val="Вода SKU"/>
       <sheetName val="Соль SKU"/>
+      <sheetName val="Типы варок"/>
+      <sheetName val="Расписание"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1010,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W122"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,28 +1187,31 @@
         <v>31</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2:J33" ca="1" si="0">IF(L2="", IF(N2="","",W2+(INDIRECT("Q" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("Q" &amp; ROW() - 1) - R2))</f>
-        <v/>
+        <f t="shared" ref="J2:J35" ca="1" si="0">IF(L2="", IF(N2="","",W2+(INDIRECT("Q" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("Q" &amp; ROW() - 1) - R2))</f>
+        <v/>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8" t="str">
-        <f t="shared" ref="M2:M33" ca="1" si="1">IF(L2="", IF(W2=0, "", W2), IF(U2 = "", "", IF(U2/T2 = 0, "", U2/T2)))</f>
+        <f t="shared" ref="M2:M35" ca="1" si="1">IF(L2="", IF(W2=0, "", W2), IF(U2 = "", "", IF(U2/T2 = 0, "", U2/T2)))</f>
         <v/>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="2">IF(N2 = "-", -V2,I2)</f>
+        <f t="shared" ref="O2:O35" si="2">IF(N2 = "-", -V2,I2)</f>
         <v>31</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" ca="1" si="3">IF(N2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O2)))), 0)</f>
+        <f t="shared" ref="P2:P35" ca="1" si="3">IF(N2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O2)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="4">IF(N2="-",1,0)</f>
+        <f t="shared" ref="Q2:Q35" si="4">IF(N2="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R33" ca="1" si="5">IF(P2 = 0, INDIRECT("Q" &amp; ROW() - 1), P2)</f>
+        <f t="shared" ref="R2:R35" ca="1" si="5">IF(P2 = 0, INDIRECT("Q" &amp; ROW() - 1), P2)</f>
         <v>Разделитель int</v>
       </c>
       <c r="S2" t="str">
@@ -1164,19 +1219,19 @@
         <v>3.3, Альче, без лактозы</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T33" si="6">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" ref="T2:T35" si="6">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U33" si="7">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
+        <f t="shared" ref="U2:U35" si="7">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V33" si="8">IF(U2 = "", "", U2/T2)</f>
+        <f t="shared" ref="V2:V35" si="8">IF(U2 = "", "", U2/T2)</f>
         <v>0</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2:W33" ca="1" si="9">IF(N2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ref="W2:W35" ca="1" si="9">IF(N2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1207,6 +1262,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="M3" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1250,7 +1308,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="str">
-        <f t="shared" ref="A4:A26" ca="1" si="10">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
+        <f t="shared" ref="A4:A28" ca="1" si="10">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
         <v/>
       </c>
       <c r="B4" s="16" t="s">
@@ -1274,6 +1332,9 @@
       <c r="J4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="M4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1343,6 +1404,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="M5" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1411,6 +1475,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1479,6 +1546,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="M7" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1547,6 +1617,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1615,6 +1688,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1683,6 +1759,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="M10" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1751,6 +1830,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="M11" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1819,6 +1901,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="M12" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -1955,6 +2040,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="M14" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -2017,19 +2105,22 @@
         <v>37</v>
       </c>
       <c r="I15" s="15">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="M15" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
@@ -2091,9 +2182,12 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+      <c r="L16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>875</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="2"/>
@@ -2121,11 +2215,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2159,6 +2253,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="M17" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -2227,6 +2324,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="M18" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -2269,55 +2369,58 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>29</v>
+      <c r="A19" s="14" t="str">
+        <f t="shared" ref="A19:A20" ca="1" si="11">IF(F19="","",IF(J19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M19))))))</f>
+        <v/>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="15">
+        <v>21</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ref="J19:J20" ca="1" si="12">IF(L19="", IF(N19="","",W19+(INDIRECT("Q" &amp; ROW() - 1) - R19)),IF(N19="", "", INDIRECT("Q" &amp; ROW() - 1) - R19))</f>
+        <v/>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f t="shared" ref="M19:M20" ca="1" si="13">IF(L19="", IF(W19=0, "", W19), IF(U19 = "", "", IF(U19/T19 = 0, "", U19/T19)))</f>
+        <v/>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O20" si="14">IF(N19 = "-", -V19,I19)</f>
+        <v>21</v>
       </c>
       <c r="P19">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="P19:P20" ca="1" si="15">IF(N19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O19)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q19:Q20" si="16">IF(N19="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="R19:R20" ca="1" si="17">IF(P19 = 0, INDIRECT("Q" &amp; ROW() - 1), P19)</f>
         <v>0</v>
       </c>
       <c r="S19" t="str">
         <f>IF(H19="","",VLOOKUP(H19,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v>3.6, Альче</v>
       </c>
       <c r="T19">
         <f t="shared" si="6"/>
@@ -2328,17 +2431,17 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="V19:V20" si="18">IF(U19 = "", "", U19/T19)</f>
         <v>0</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="W19:W20" ca="1" si="19">IF(N19="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R19)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
@@ -2357,30 +2460,33 @@
         <v>41</v>
       </c>
       <c r="I20" s="15">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="J20" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <f t="shared" si="14"/>
+        <v>979</v>
       </c>
       <c r="P20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="S20" t="str">
@@ -2396,11 +2502,11 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -2431,9 +2537,12 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+      <c r="L21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="2"/>
@@ -2461,11 +2570,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2473,39 +2582,42 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="str">
+      <c r="A22" s="14" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="15">
         <v>1000</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="13">
-        <v>578</v>
+      <c r="D22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1000</v>
       </c>
       <c r="J22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="M22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>578</v>
+        <v>1000</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="3"/>
@@ -2521,7 +2633,7 @@
       </c>
       <c r="S22" t="str">
         <f>IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.3, Сакко</v>
+        <v>3.6, Альче</v>
       </c>
       <c r="T22">
         <f t="shared" si="6"/>
@@ -2541,27 +2653,27 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="str">
+      <c r="A23" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="13">
-        <v>33</v>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="J23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2571,9 +2683,9 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O23">
+      <c r="O23" t="str">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>-</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="3"/>
@@ -2589,7 +2701,7 @@
       </c>
       <c r="S23" t="str">
         <f>IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.3, Сакко</v>
+        <v>-</v>
       </c>
       <c r="T23">
         <f t="shared" si="6"/>
@@ -2626,22 +2738,25 @@
         <v>90</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I24" s="13">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="J24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="M24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="3"/>
@@ -2694,22 +2809,25 @@
         <v>90</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I25" s="13">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="J25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="M25" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="3"/>
@@ -2745,39 +2863,42 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="str">
+      <c r="A26" s="12" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>29</v>
+      <c r="B26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="13">
+        <v>264</v>
       </c>
       <c r="J26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
       <c r="M26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O26" t="str">
+      <c r="O26">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>264</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="3"/>
@@ -2793,7 +2914,7 @@
       </c>
       <c r="S26" t="str">
         <f>IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v>3.3, Сакко</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
@@ -2813,17 +2934,42 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="13">
+        <v>125</v>
+      </c>
       <c r="J27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
       <c r="M27" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="3"/>
@@ -2839,7 +2985,7 @@
       </c>
       <c r="S27" t="str">
         <f>IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
+        <v>3.3, Сакко</v>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
@@ -2859,6 +3005,28 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2867,9 +3035,9 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O28">
+      <c r="O28" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="3"/>
@@ -2885,7 +3053,7 @@
       </c>
       <c r="S28" t="str">
         <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="T28">
         <f t="shared" si="6"/>
@@ -3136,27 +3304,27 @@
     </row>
     <row r="34" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J34" s="7" t="str">
-        <f t="shared" ref="J34:J65" ca="1" si="11">IF(L34="", IF(N34="","",W34+(INDIRECT("Q" &amp; ROW() - 1) - R34)),IF(N34="", "", INDIRECT("Q" &amp; ROW() - 1) - R34))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" ref="M34:M65" ca="1" si="12">IF(L34="", IF(W34=0, "", W34), IF(U34 = "", "", IF(U34/T34 = 0, "", U34/T34)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="13">IF(N34 = "-", -V34,I34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P65" ca="1" si="14">IF(N34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O34)))), 0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="15">IF(N34="-",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R65" ca="1" si="16">IF(P34 = 0, INDIRECT("Q" &amp; ROW() - 1), P34)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" t="str">
@@ -3164,45 +3332,45 @@
         <v/>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34:T65" si="17">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:U65" si="18">VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 0 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),0 *LEN($L34)+1,LEN($L34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 1 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),1 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 2 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),2 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 3 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),3 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 4 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),4 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 5 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),5 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 6 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),6 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 7 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),7 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 8 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),8 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 9 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),9 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 10 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),10 *LEN($L34)+1,LEN($L34)))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" ref="V34:V65" si="19">IF(U34 = "", "", U34/T34)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" ref="W34:W65" ca="1" si="20">IF(N34="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R34)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J35" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" t="str">
@@ -3210,45 +3378,45 @@
         <v/>
       </c>
       <c r="T35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="U35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J36" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="J36:J67" ca="1" si="20">IF(L36="", IF(N36="","",W36+(INDIRECT("Q" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("Q" &amp; ROW() - 1) - R36))</f>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="M36:M67" ca="1" si="21">IF(L36="", IF(W36=0, "", W36), IF(U36 = "", "", IF(U36/T36 = 0, "", U36/T36)))</f>
         <v/>
       </c>
       <c r="O36">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="O36:O67" si="22">IF(N36 = "-", -V36,I36)</f>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="P36:P67" ca="1" si="23">IF(N36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O36)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q36:Q67" si="24">IF(N36="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="R36:R67" ca="1" si="25">IF(P36 = 0, INDIRECT("Q" &amp; ROW() - 1), P36)</f>
         <v>0</v>
       </c>
       <c r="S36" t="str">
@@ -3256,45 +3424,45 @@
         <v/>
       </c>
       <c r="T36">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="T36:T67" si="26">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U36">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="U36:U67" si="27">VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 0 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),0 *LEN($L36)+1,LEN($L36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 1 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),1 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 2 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),2 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 3 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),3 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 4 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),4 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 5 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),5 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 6 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),6 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 7 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),7 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 8 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),8 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 9 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),9 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 10 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),10 *LEN($L36)+1,LEN($L36)))))</f>
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="V36:V67" si="28">IF(U36 = "", "", U36/T36)</f>
         <v>0</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="W36:W67" ca="1" si="29">IF(N36="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R36)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J37" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S37" t="str">
@@ -3302,45 +3470,45 @@
         <v/>
       </c>
       <c r="T37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J38" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S38" t="str">
@@ -3348,45 +3516,45 @@
         <v/>
       </c>
       <c r="T38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J39" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S39" t="str">
@@ -3394,45 +3562,45 @@
         <v/>
       </c>
       <c r="T39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J40" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S40" t="str">
@@ -3440,45 +3608,45 @@
         <v/>
       </c>
       <c r="T40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J41" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M41" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S41" t="str">
@@ -3486,45 +3654,45 @@
         <v/>
       </c>
       <c r="T41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J42" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S42" t="str">
@@ -3532,45 +3700,45 @@
         <v/>
       </c>
       <c r="T42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J43" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M43" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S43" t="str">
@@ -3578,45 +3746,45 @@
         <v/>
       </c>
       <c r="T43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J44" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S44" t="str">
@@ -3624,45 +3792,45 @@
         <v/>
       </c>
       <c r="T44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J45" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S45" t="str">
@@ -3670,45 +3838,45 @@
         <v/>
       </c>
       <c r="T45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J46" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S46" t="str">
@@ -3716,45 +3884,45 @@
         <v/>
       </c>
       <c r="T46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J47" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S47" t="str">
@@ -3762,45 +3930,45 @@
         <v/>
       </c>
       <c r="T47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J48" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S48" t="str">
@@ -3808,45 +3976,45 @@
         <v/>
       </c>
       <c r="T48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J49" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S49" t="str">
@@ -3854,45 +4022,45 @@
         <v/>
       </c>
       <c r="T49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J50" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S50" t="str">
@@ -3900,45 +4068,45 @@
         <v/>
       </c>
       <c r="T50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J51" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S51" t="str">
@@ -3946,45 +4114,45 @@
         <v/>
       </c>
       <c r="T51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J52" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M52" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S52" t="str">
@@ -3992,45 +4160,45 @@
         <v/>
       </c>
       <c r="T52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J53" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M53" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S53" t="str">
@@ -4038,45 +4206,45 @@
         <v/>
       </c>
       <c r="T53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J54" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M54" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S54" t="str">
@@ -4084,45 +4252,45 @@
         <v/>
       </c>
       <c r="T54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J55" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M55" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S55" t="str">
@@ -4130,45 +4298,45 @@
         <v/>
       </c>
       <c r="T55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J56" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M56" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S56" t="str">
@@ -4176,45 +4344,45 @@
         <v/>
       </c>
       <c r="T56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J57" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M57" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S57" t="str">
@@ -4222,45 +4390,45 @@
         <v/>
       </c>
       <c r="T57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J58" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M58" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S58" t="str">
@@ -4268,46 +4436,45 @@
         <v/>
       </c>
       <c r="T58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J59" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L59" s="8"/>
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
       <c r="M59" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S59" t="str">
@@ -4315,45 +4482,45 @@
         <v/>
       </c>
       <c r="T59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J60" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S60" t="str">
@@ -4361,45 +4528,46 @@
         <v/>
       </c>
       <c r="T60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J61" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="L61" s="8"/>
       <c r="M61" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S61" t="str">
@@ -4407,45 +4575,45 @@
         <v/>
       </c>
       <c r="T61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J62" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M62" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S62" t="str">
@@ -4453,45 +4621,45 @@
         <v/>
       </c>
       <c r="T62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J63" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M63" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S63" t="str">
@@ -4499,45 +4667,45 @@
         <v/>
       </c>
       <c r="T63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J64" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M64" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S64" t="str">
@@ -4545,45 +4713,45 @@
         <v/>
       </c>
       <c r="T64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J65" s="7" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M65" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S65" t="str">
@@ -4591,45 +4759,45 @@
         <v/>
       </c>
       <c r="T65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J66" s="7" t="str">
-        <f t="shared" ref="J66:J97" ca="1" si="21">IF(L66="", IF(N66="","",W66+(INDIRECT("Q" &amp; ROW() - 1) - R66)),IF(N66="", "", INDIRECT("Q" &amp; ROW() - 1) - R66))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M66" s="8" t="str">
-        <f t="shared" ref="M66:M97" ca="1" si="22">IF(L66="", IF(W66=0, "", W66), IF(U66 = "", "", IF(U66/T66 = 0, "", U66/T66)))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="23">IF(N66 = "-", -V66,I66)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P73" ca="1" si="24">IF(N66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O66)))), 0)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="25">IF(N66="-",1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R97" ca="1" si="26">IF(P66 = 0, INDIRECT("Q" &amp; ROW() - 1), P66)</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S66" t="str">
@@ -4637,45 +4805,45 @@
         <v/>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66:T97" si="27">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U97" si="28">VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 0 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),0 *LEN($L66)+1,LEN($L66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 1 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),1 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 2 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),2 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 3 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),3 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 4 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),4 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 5 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),5 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 6 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),6 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 7 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),7 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 8 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),8 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 9 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),9 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 10 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),10 *LEN($L66)+1,LEN($L66)))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V66">
-        <f t="shared" ref="V66:V97" si="29">IF(U66 = "", "", U66/T66)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" ref="W66:W97" ca="1" si="30">IF(N66="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R66)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J67" s="7" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="M67" s="8" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="M67" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
       <c r="O67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="S67" t="str">
@@ -4683,45 +4851,45 @@
         <v/>
       </c>
       <c r="T67">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="U67">
         <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="V67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="W67" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J68" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="J68:J99" ca="1" si="30">IF(L68="", IF(N68="","",W68+(INDIRECT("Q" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("Q" &amp; ROW() - 1) - R68))</f>
         <v/>
       </c>
       <c r="M68" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="M68:M99" ca="1" si="31">IF(L68="", IF(W68=0, "", W68), IF(U68 = "", "", IF(U68/T68 = 0, "", U68/T68)))</f>
         <v/>
       </c>
       <c r="O68">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="O68:O99" si="32">IF(N68 = "-", -V68,I68)</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="P68:P75" ca="1" si="33">IF(N68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O68)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="Q68:Q99" si="34">IF(N68="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="R68:R99" ca="1" si="35">IF(P68 = 0, INDIRECT("Q" &amp; ROW() - 1), P68)</f>
         <v>0</v>
       </c>
       <c r="S68" t="str">
@@ -4729,45 +4897,45 @@
         <v/>
       </c>
       <c r="T68">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="T68:T99" si="36">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U68">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="U68:U99" si="37">VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 0 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),0 *LEN($L68)+1,LEN($L68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 1 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),1 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 2 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),2 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 3 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),3 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 4 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),4 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 5 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),5 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 6 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),6 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 7 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),7 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 8 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),8 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 9 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),9 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 10 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),10 *LEN($L68)+1,LEN($L68)))))</f>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="V68:V99" si="38">IF(U68 = "", "", U68/T68)</f>
         <v>0</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="W68:W99" ca="1" si="39">IF(N68="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R68)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J69" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M69" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S69" t="str">
@@ -4775,45 +4943,45 @@
         <v/>
       </c>
       <c r="T69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J70" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M70" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S70" t="str">
@@ -4821,45 +4989,45 @@
         <v/>
       </c>
       <c r="T70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J71" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M71" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S71" t="str">
@@ -4867,45 +5035,45 @@
         <v/>
       </c>
       <c r="T71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J72" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M72" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S72" t="str">
@@ -4913,45 +5081,45 @@
         <v/>
       </c>
       <c r="T72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J73" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M73" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S73" t="str">
@@ -4959,45 +5127,45 @@
         <v/>
       </c>
       <c r="T73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J74" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M74" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P74:P99" ca="1" si="31">IF(N74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(O74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(O74)))),0)</f>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S74" t="str">
@@ -5005,45 +5173,45 @@
         <v/>
       </c>
       <c r="T74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J75" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M75" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S75" t="str">
@@ -5051,45 +5219,45 @@
         <v/>
       </c>
       <c r="T75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J76" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M76" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P76">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="P76:P101" ca="1" si="40">IF(N76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(O76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(O76)))),0)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S76" t="str">
@@ -5097,45 +5265,45 @@
         <v/>
       </c>
       <c r="T76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J77" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M77" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S77" t="str">
@@ -5143,45 +5311,45 @@
         <v/>
       </c>
       <c r="T77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J78" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M78" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S78" t="str">
@@ -5189,45 +5357,45 @@
         <v/>
       </c>
       <c r="T78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J79" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M79" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S79" t="str">
@@ -5235,45 +5403,45 @@
         <v/>
       </c>
       <c r="T79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J80" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M80" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S80" t="str">
@@ -5281,45 +5449,45 @@
         <v/>
       </c>
       <c r="T80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J81" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M81" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S81" t="str">
@@ -5327,45 +5495,45 @@
         <v/>
       </c>
       <c r="T81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J82" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M82" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S82" t="str">
@@ -5373,45 +5541,45 @@
         <v/>
       </c>
       <c r="T82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J83" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M83" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P83">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S83" t="str">
@@ -5419,45 +5587,45 @@
         <v/>
       </c>
       <c r="T83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J84" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M84" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S84" t="str">
@@ -5465,45 +5633,45 @@
         <v/>
       </c>
       <c r="T84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W84" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J85" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M85" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S85" t="str">
@@ -5511,45 +5679,45 @@
         <v/>
       </c>
       <c r="T85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W85" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J86" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M86" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S86" t="str">
@@ -5557,45 +5725,45 @@
         <v/>
       </c>
       <c r="T86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J87" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M87" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P87">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S87" t="str">
@@ -5603,45 +5771,45 @@
         <v/>
       </c>
       <c r="T87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J88" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M88" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P88">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S88" t="str">
@@ -5649,45 +5817,45 @@
         <v/>
       </c>
       <c r="T88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J89" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M89" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P89">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S89" t="str">
@@ -5695,45 +5863,45 @@
         <v/>
       </c>
       <c r="T89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J90" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M90" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P90">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S90" t="str">
@@ -5741,45 +5909,45 @@
         <v/>
       </c>
       <c r="T90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U90">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J91" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M91" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P91">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S91" t="str">
@@ -5787,45 +5955,45 @@
         <v/>
       </c>
       <c r="T91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U91">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J92" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M92" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P92">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S92" t="str">
@@ -5833,45 +6001,45 @@
         <v/>
       </c>
       <c r="T92">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U92">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V92">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J93" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M93" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P93">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S93" t="str">
@@ -5879,45 +6047,45 @@
         <v/>
       </c>
       <c r="T93">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U93">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V93">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J94" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M94" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P94">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S94" t="str">
@@ -5925,45 +6093,45 @@
         <v/>
       </c>
       <c r="T94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J95" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M95" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P95">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R95">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S95" t="str">
@@ -5971,45 +6139,45 @@
         <v/>
       </c>
       <c r="T95">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V95">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J96" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M96" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P96">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R96">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S96" t="str">
@@ -6017,45 +6185,45 @@
         <v/>
       </c>
       <c r="T96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U96">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V96">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J97" s="7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M97" s="8" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P97">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R97">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S97" t="str">
@@ -6063,45 +6231,45 @@
         <v/>
       </c>
       <c r="T97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U97">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V97">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J98" s="7" t="str">
-        <f t="shared" ref="J98:J122" ca="1" si="32">IF(L98="", IF(N98="","",W98+(INDIRECT("Q" &amp; ROW() - 1) - R98)),IF(N98="", "", INDIRECT("Q" &amp; ROW() - 1) - R98))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M98" s="8" t="str">
-        <f t="shared" ref="M98:M122" ca="1" si="33">IF(L98="", IF(W98=0, "", W98), IF(U98 = "", "", IF(U98/T98 = 0, "", U98/T98)))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O98">
-        <f t="shared" ref="O98:O122" si="34">IF(N98 = "-", -V98,I98)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P98">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q122" si="35">IF(N98="-",1,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R122" ca="1" si="36">IF(P98 = 0, INDIRECT("Q" &amp; ROW() - 1), P98)</f>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S98" t="str">
@@ -6109,45 +6277,45 @@
         <v/>
       </c>
       <c r="T98">
-        <f t="shared" ref="T98:T122" si="37">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U98">
-        <f t="shared" ref="U98:U122" si="38">VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 0 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),0 *LEN($L98)+1,LEN($L98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 1 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),1 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 2 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),2 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 3 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),3 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 4 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),4 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 5 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),5 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 6 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),6 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 7 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),7 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 8 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),8 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 9 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),9 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 10 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),10 *LEN($L98)+1,LEN($L98)))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V98">
-        <f t="shared" ref="V98:V122" si="39">IF(U98 = "", "", U98/T98)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" ref="W98:W122" ca="1" si="40">IF(N98="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R98)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J99" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M99" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O99">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ca="1" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q99">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="P99">
-        <f t="shared" ca="1" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
       <c r="R99">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="S99" t="str">
@@ -6155,45 +6323,45 @@
         <v/>
       </c>
       <c r="T99">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="U99">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="V99">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
       <c r="W99" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J100" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="J100:J124" ca="1" si="41">IF(L100="", IF(N100="","",W100+(INDIRECT("Q" &amp; ROW() - 1) - R100)),IF(N100="", "", INDIRECT("Q" &amp; ROW() - 1) - R100))</f>
         <v/>
       </c>
       <c r="M100" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="M100:M124" ca="1" si="42">IF(L100="", IF(W100=0, "", W100), IF(U100 = "", "", IF(U100/T100 = 0, "", U100/T100)))</f>
         <v/>
       </c>
       <c r="O100">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O100:O124" si="43">IF(N100 = "-", -V100,I100)</f>
         <v>0</v>
       </c>
       <c r="P100">
-        <f t="shared" ref="P100:P122" ca="1" si="41">IF(N100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O100)))), 0)</f>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="Q100:Q124" si="44">IF(N100="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="R100:R124" ca="1" si="45">IF(P100 = 0, INDIRECT("Q" &amp; ROW() - 1), P100)</f>
         <v>0</v>
       </c>
       <c r="S100" t="str">
@@ -6201,45 +6369,45 @@
         <v/>
       </c>
       <c r="T100">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="T100:T124" si="46">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U100">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="U100:U124" si="47">VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 0 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),0 *LEN($L100)+1,LEN($L100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 1 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),1 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 2 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),2 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 3 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),3 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 4 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),4 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 5 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),5 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 6 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),6 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 7 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),7 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 8 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),8 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 9 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),9 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 10 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),10 *LEN($L100)+1,LEN($L100)))))</f>
         <v>0</v>
       </c>
       <c r="V100">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="V100:V124" si="48">IF(U100 = "", "", U100/T100)</f>
         <v>0</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="W100:W124" ca="1" si="49">IF(N100="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R100)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J101" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M101" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O101">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R101">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S101" t="str">
@@ -6247,45 +6415,45 @@
         <v/>
       </c>
       <c r="T101">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U101">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W101" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J102" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M102" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O102">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P102">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ref="P102:P124" ca="1" si="50">IF(N102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O102)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R102">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S102" t="str">
@@ -6293,45 +6461,45 @@
         <v/>
       </c>
       <c r="T102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W102" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J103" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M103" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P103">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R103">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S103" t="str">
@@ -6339,45 +6507,45 @@
         <v/>
       </c>
       <c r="T103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U103">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V103">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W103" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J104" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M104" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P104">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R104">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S104" t="str">
@@ -6385,45 +6553,45 @@
         <v/>
       </c>
       <c r="T104">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V104">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W104" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J105" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M105" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P105">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R105">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S105" t="str">
@@ -6431,45 +6599,45 @@
         <v/>
       </c>
       <c r="T105">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U105">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W105" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J106" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M106" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P106">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R106">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S106" t="str">
@@ -6477,45 +6645,45 @@
         <v/>
       </c>
       <c r="T106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W106" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J107" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M107" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P107">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S107" t="str">
@@ -6523,45 +6691,45 @@
         <v/>
       </c>
       <c r="T107">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U107">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W107" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J108" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M108" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P108">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R108">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S108" t="str">
@@ -6569,45 +6737,45 @@
         <v/>
       </c>
       <c r="T108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U108">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W108" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J109" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M109" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P109">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R109">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S109" t="str">
@@ -6615,45 +6783,45 @@
         <v/>
       </c>
       <c r="T109">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U109">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W109" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J110" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M110" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P110">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S110" t="str">
@@ -6661,45 +6829,45 @@
         <v/>
       </c>
       <c r="T110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U110">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W110" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J111" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M111" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P111">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R111">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S111" t="str">
@@ -6707,45 +6875,45 @@
         <v/>
       </c>
       <c r="T111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U111">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V111">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W111" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J112" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M112" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O112">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P112">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R112">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S112" t="str">
@@ -6753,45 +6921,45 @@
         <v/>
       </c>
       <c r="T112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U112">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V112">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W112" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J113" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M113" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P113">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R113">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S113" t="str">
@@ -6799,45 +6967,45 @@
         <v/>
       </c>
       <c r="T113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U113">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V113">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W113" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J114" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M114" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P114">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R114">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S114" t="str">
@@ -6845,45 +7013,45 @@
         <v/>
       </c>
       <c r="T114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U114">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V114">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W114" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J115" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M115" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P115">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R115">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S115" t="str">
@@ -6891,45 +7059,45 @@
         <v/>
       </c>
       <c r="T115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U115">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V115">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W115" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J116" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M116" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P116">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R116">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S116" t="str">
@@ -6937,45 +7105,45 @@
         <v/>
       </c>
       <c r="T116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W116" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J117" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M117" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P117">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R117">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S117" t="str">
@@ -6983,45 +7151,45 @@
         <v/>
       </c>
       <c r="T117">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U117">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V117">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W117" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J118" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M118" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P118">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R118">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S118" t="str">
@@ -7029,45 +7197,45 @@
         <v/>
       </c>
       <c r="T118">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U118">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V118">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W118" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J119" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M119" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P119">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R119">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S119" t="str">
@@ -7075,45 +7243,45 @@
         <v/>
       </c>
       <c r="T119">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U119">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W119" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J120" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M120" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P120">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R120">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S120" t="str">
@@ -7121,45 +7289,45 @@
         <v/>
       </c>
       <c r="T120">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U120">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V120">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W120" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J121" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M121" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P121">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R121">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S121" t="str">
@@ -7167,45 +7335,45 @@
         <v/>
       </c>
       <c r="T121">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U121">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V121">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W121" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J122" s="7" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M122" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="O122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P122">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R122">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="S122" t="str">
@@ -7213,52 +7381,167 @@
         <v/>
       </c>
       <c r="T122">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="U122">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V122">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W122" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J123" s="7" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="M123" s="8" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="O123">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ca="1" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" ca="1" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S123" t="str">
+        <f>IF(H123="","",VLOOKUP(H123,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="T123">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W123" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="10:23" x14ac:dyDescent="0.3">
+      <c r="J124" s="7" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="M124" s="8" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="O124">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" ca="1" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" ca="1" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S124" t="str">
+        <f>IF(H124="","",VLOOKUP(H124,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="T124">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W124" t="str">
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+  <conditionalFormatting sqref="J1:J18 J21:J1048576">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
       <formula>0</formula>
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="between">
       <formula>-10000</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B122">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>$B27&lt;&gt;$S27</formula>
+  <conditionalFormatting sqref="B29:B124">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>$B29&lt;&gt;$S29</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>$B27&lt;&gt;$S27</formula>
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>$B29&lt;&gt;$S29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J122">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="J2:J18 J21:J124">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B26">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="B2:B18 B21:B28">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$C2&lt;&gt;$P2</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>$C2&lt;&gt;$P2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>100000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+      <formula>-10000</formula>
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$C19&lt;&gt;$P19</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$C2&lt;&gt;$P2</formula>
+      <formula>$C19&lt;&gt;$P19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7273,7 +7556,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B27:B122</xm:sqref>
+          <xm:sqref>B29:B124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -7282,25 +7565,25 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H27:H59</xm:sqref>
+          <xm:sqref>H29:H61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" xr:uid="{04425E3D-688A-4179-AA6C-A055F683348F}">
           <x14:formula1>
-            <xm:f>'[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
+            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B2:B26</xm:sqref>
+          <xm:sqref>B2:B28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D068F6F3-7D2A-46ED-8BD5-4F1459D0BEC3}">
           <x14:formula1>
-            <xm:f>'[2021-01-19 План по варкам.xlsx]Вода SKU'!#REF!</xm:f>
+            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Вода SKU'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H26</xm:sqref>
+          <xm:sqref>H2:H28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7316,7 +7599,7 @@
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13580,7 +13863,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" xr:uid="{ADB8AAD9-DFD5-403A-9CC0-EC8E237FA686}">
           <x14:formula1>
-            <xm:f>'[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
+            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -13589,7 +13872,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{EEF82D69-723D-4B35-986A-077BE96E4CDA}">
           <x14:formula1>
-            <xm:f>'[2021-01-19 План по варкам.xlsx]Соль SKU'!#REF!</xm:f>
+            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Соль SKU'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5EA2E-D94A-4452-9F82-F173798EE134}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB24AF-66AE-4479-A5B4-4351287FE291}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="Типы варок" sheetId="8" r:id="rId8"/>
     <sheet name="Расписание" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="102">
   <si>
     <t>Тип варки</t>
   </si>
@@ -71,9 +68,6 @@
     <t>Номер команды</t>
   </si>
   <si>
-    <t>Конфигурация варок</t>
-  </si>
-  <si>
     <t>Разделитель</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>Номер</t>
-  </si>
-  <si>
-    <t>Вес варок</t>
   </si>
   <si>
     <t>3.3, Альче, без лактозы</t>
@@ -347,10 +338,10 @@
     <t>0.46</t>
   </si>
   <si>
-    <t>7000</t>
+    <t>Конфигурация варки</t>
   </si>
   <si>
-    <t>8000, 8000</t>
+    <t>Вес варки</t>
   </si>
 </sst>
 </file>
@@ -495,7 +486,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -521,40 +512,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,35 +649,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="файл остатки"/>
-      <sheetName val="планирование суточное"/>
-      <sheetName val="Вода"/>
-      <sheetName val="Соль"/>
-      <sheetName val="Дополнительная фасовка"/>
-      <sheetName val="Вода SKU"/>
-      <sheetName val="Соль SKU"/>
-      <sheetName val="Типы варок"/>
-      <sheetName val="Расписание"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,13 +990,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W124"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1130,37 +1058,37 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1169,25 +1097,25 @@
         <v/>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="13">
         <v>1000</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="13">
         <v>31</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2:J35" ca="1" si="0">IF(L2="", IF(N2="","",W2+(INDIRECT("Q" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("Q" &amp; ROW() - 1) - R2))</f>
+        <f t="shared" ref="J2:J33" ca="1" si="0">IF(L2="", IF(N2="","",W2+(INDIRECT("Q" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("Q" &amp; ROW() - 1) - R2))</f>
         <v/>
       </c>
       <c r="K2">
@@ -1195,23 +1123,23 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8" t="str">
-        <f t="shared" ref="M2:M35" ca="1" si="1">IF(L2="", IF(W2=0, "", W2), IF(U2 = "", "", IF(U2/T2 = 0, "", U2/T2)))</f>
+        <f t="shared" ref="M2:M33" ca="1" si="1">IF(L2="", IF(W2=0, "", W2), IF(U2 = "", "", IF(U2/T2 = 0, "", U2/T2)))</f>
         <v/>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O35" si="2">IF(N2 = "-", -V2,I2)</f>
+        <f t="shared" ref="O2:O33" si="2">IF(N2 = "-", -V2,I2)</f>
         <v>31</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P35" ca="1" si="3">IF(N2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O2)))), 0)</f>
+        <f t="shared" ref="P2:P33" ca="1" si="3">IF(N2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O2)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q35" si="4">IF(N2="-",1,0)</f>
+        <f t="shared" ref="Q2:Q33" si="4">IF(N2="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R35" ca="1" si="5">IF(P2 = 0, INDIRECT("Q" &amp; ROW() - 1), P2)</f>
+        <f t="shared" ref="R2:R33" ca="1" si="5">IF(P2 = 0, INDIRECT("Q" &amp; ROW() - 1), P2)</f>
         <v>Разделитель int</v>
       </c>
       <c r="S2" t="str">
@@ -1219,19 +1147,19 @@
         <v>3.3, Альче, без лактозы</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T35" si="6">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" ref="T2:T33" si="6">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U35" si="7">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
+        <f t="shared" ref="U2:U33" si="7">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V35" si="8">IF(U2 = "", "", U2/T2)</f>
+        <f t="shared" ref="V2:V33" si="8">IF(U2 = "", "", U2/T2)</f>
         <v>0</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2:W35" ca="1" si="9">IF(N2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ref="W2:W33" ca="1" si="9">IF(N2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1241,19 +1169,19 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15">
         <v>1000</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="15">
         <v>6</v>
@@ -1308,23 +1236,23 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="str">
-        <f t="shared" ref="A4:A28" ca="1" si="10">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
+        <f t="shared" ref="A4:A26" ca="1" si="10">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
         <v/>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="15">
         <v>1000</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="15">
         <v>23</v>
@@ -1383,19 +1311,19 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="15">
         <v>1000</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="15">
         <v>43</v>
@@ -1454,19 +1382,19 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="15">
         <v>1000</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="15">
         <v>405</v>
@@ -1525,19 +1453,19 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="15">
         <v>1000</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H7" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="15">
         <v>55</v>
@@ -1596,19 +1524,19 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="15">
         <v>1000</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="15">
         <v>184</v>
@@ -1667,19 +1595,19 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15">
         <v>1000</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="15">
         <v>28</v>
@@ -1738,19 +1666,19 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="15">
         <v>1000</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="15">
         <v>82</v>
@@ -1809,19 +1737,19 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15">
         <v>1000</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="15">
         <v>36</v>
@@ -1880,19 +1808,19 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="15">
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12" s="15">
         <v>107</v>
@@ -1951,22 +1879,22 @@
         <v/>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2019,19 +1947,19 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15">
         <v>1000</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="15">
         <v>500</v>
@@ -2090,22 +2018,22 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="15">
         <v>1000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="15">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2120,7 +2048,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="3"/>
@@ -2161,33 +2089,30 @@
         <v/>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="1"/>
-        <v>875</v>
+      <c r="M16" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="2"/>
@@ -2215,11 +2140,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2232,19 +2157,19 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="15">
         <v>1000</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17" s="15">
         <v>21</v>
@@ -2303,19 +2228,19 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="15">
         <v>1000</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="15">
         <v>979</v>
@@ -2369,58 +2294,55 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="str">
-        <f t="shared" ref="A19:A20" ca="1" si="11">IF(F19="","",IF(J19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M19))))))</f>
-        <v/>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="15">
-        <v>21</v>
+      <c r="A19" s="17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f t="shared" ref="J19:J20" ca="1" si="12">IF(L19="", IF(N19="","",W19+(INDIRECT("Q" &amp; ROW() - 1) - R19)),IF(N19="", "", INDIRECT("Q" &amp; ROW() - 1) - R19))</f>
-        <v/>
-      </c>
-      <c r="K19">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" ref="M19:M20" ca="1" si="13">IF(L19="", IF(W19=0, "", W19), IF(U19 = "", "", IF(U19/T19 = 0, "", U19/T19)))</f>
-        <v/>
-      </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O20" si="14">IF(N19 = "-", -V19,I19)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P20" ca="1" si="15">IF(N19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O19)))), 0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q20" si="16">IF(N19="-",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R20" ca="1" si="17">IF(P19 = 0, INDIRECT("Q" &amp; ROW() - 1), P19)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" t="str">
         <f>IF(H19="","",VLOOKUP(H19,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.6, Альче</v>
+        <v>-</v>
       </c>
       <c r="T19">
         <f t="shared" si="6"/>
@@ -2431,62 +2353,62 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" ref="V19:V20" si="18">IF(U19 = "", "", U19/T19)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" ref="W19:W20" ca="1" si="19">IF(N19="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R19)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="15">
         <v>1000</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="H20" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="15">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="7" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O20">
-        <f t="shared" si="14"/>
-        <v>979</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" t="str">
@@ -2502,11 +2424,11 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -2516,33 +2438,30 @@
         <v/>
       </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+      <c r="M21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="2"/>
@@ -2570,11 +2489,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="7"/>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2582,27 +2501,27 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="str">
+      <c r="A22" s="12" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13">
         <v>1000</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="D22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="15">
-        <v>1000</v>
+      <c r="I22" s="13">
+        <v>578</v>
       </c>
       <c r="J22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2617,7 +2536,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>578</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="3"/>
@@ -2633,7 +2552,7 @@
       </c>
       <c r="S22" t="str">
         <f>IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.6, Альче</v>
+        <v>3.3, Сакко</v>
       </c>
       <c r="T22">
         <f t="shared" si="6"/>
@@ -2653,39 +2572,42 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="12" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>29</v>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="13">
+        <v>33</v>
       </c>
       <c r="J23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="M23" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O23" t="str">
+      <c r="O23">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>33</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="3"/>
@@ -2701,7 +2623,7 @@
       </c>
       <c r="S23" t="str">
         <f>IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v>3.3, Сакко</v>
       </c>
       <c r="T23">
         <f t="shared" si="6"/>
@@ -2726,22 +2648,22 @@
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="13">
         <v>1000</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="13">
-        <v>578</v>
+        <v>264</v>
       </c>
       <c r="J24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2756,7 +2678,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>578</v>
+        <v>264</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="3"/>
@@ -2797,22 +2719,22 @@
         <v/>
       </c>
       <c r="B25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="13">
         <v>1000</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="I25" s="13">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="J25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2827,7 +2749,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="3"/>
@@ -2863,42 +2785,39 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="13">
-        <v>264</v>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="J26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="M26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O26">
+      <c r="O26" t="str">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>-</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="3"/>
@@ -2914,7 +2833,7 @@
       </c>
       <c r="S26" t="str">
         <f>IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.3, Сакко</v>
+        <v>-</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
@@ -2934,42 +2853,17 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="13">
-        <v>125</v>
-      </c>
       <c r="J27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
       <c r="M27" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="3"/>
@@ -2985,7 +2879,7 @@
       </c>
       <c r="S27" t="str">
         <f>IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>3.3, Сакко</v>
+        <v/>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
@@ -3005,28 +2899,6 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="J28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3035,9 +2907,9 @@
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="O28" t="str">
+      <c r="O28">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="3"/>
@@ -3053,7 +2925,7 @@
       </c>
       <c r="S28" t="str">
         <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v>-</v>
+        <v/>
       </c>
       <c r="T28">
         <f t="shared" si="6"/>
@@ -3304,27 +3176,27 @@
     </row>
     <row r="34" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J34" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="J34:J65" ca="1" si="11">IF(L34="", IF(N34="","",W34+(INDIRECT("Q" &amp; ROW() - 1) - R34)),IF(N34="", "", INDIRECT("Q" &amp; ROW() - 1) - R34))</f>
         <v/>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="M34:M65" ca="1" si="12">IF(L34="", IF(W34=0, "", W34), IF(U34 = "", "", IF(U34/T34 = 0, "", U34/T34)))</f>
         <v/>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O34:O65" si="13">IF(N34 = "-", -V34,I34)</f>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="P34:P65" ca="1" si="14">IF(N34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O34)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q34:Q65" si="15">IF(N34="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="R34:R65" ca="1" si="16">IF(P34 = 0, INDIRECT("Q" &amp; ROW() - 1), P34)</f>
         <v>0</v>
       </c>
       <c r="S34" t="str">
@@ -3332,45 +3204,45 @@
         <v/>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T34:T65" si="17">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U34">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U34:U65" si="18">VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 0 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),0 *LEN($L34)+1,LEN($L34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 1 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),1 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 2 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),2 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 3 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),3 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 4 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),4 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 5 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),5 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 6 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),6 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 7 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),7 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 8 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),8 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 9 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),9 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 10 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),10 *LEN($L34)+1,LEN($L34)))))</f>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="V34:V65" si="19">IF(U34 = "", "", U34/T34)</f>
         <v>0</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="W34:W65" ca="1" si="20">IF(N34="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R34)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J35" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" t="str">
@@ -3378,45 +3250,45 @@
         <v/>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J36" s="7" t="str">
-        <f t="shared" ref="J36:J67" ca="1" si="20">IF(L36="", IF(N36="","",W36+(INDIRECT("Q" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("Q" &amp; ROW() - 1) - R36))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" ref="M36:M67" ca="1" si="21">IF(L36="", IF(W36=0, "", W36), IF(U36 = "", "", IF(U36/T36 = 0, "", U36/T36)))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O67" si="22">IF(N36 = "-", -V36,I36)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P67" ca="1" si="23">IF(N36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O36)))), 0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" ref="Q36:Q67" si="24">IF(N36="-",1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36:R67" ca="1" si="25">IF(P36 = 0, INDIRECT("Q" &amp; ROW() - 1), P36)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S36" t="str">
@@ -3424,45 +3296,45 @@
         <v/>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36:T67" si="26">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36:U67" si="27">VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 0 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),0 *LEN($L36)+1,LEN($L36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 1 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),1 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 2 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),2 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 3 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),3 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 4 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),4 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 5 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),5 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 6 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),6 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 7 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),7 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 8 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),8 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 9 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),9 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 10 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),10 *LEN($L36)+1,LEN($L36)))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" ref="V36:V67" si="28">IF(U36 = "", "", U36/T36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" ref="W36:W67" ca="1" si="29">IF(N36="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R36)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J37" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S37" t="str">
@@ -3470,45 +3342,45 @@
         <v/>
       </c>
       <c r="T37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J38" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" t="str">
@@ -3516,45 +3388,45 @@
         <v/>
       </c>
       <c r="T38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J39" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S39" t="str">
@@ -3562,45 +3434,45 @@
         <v/>
       </c>
       <c r="T39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J40" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S40" t="str">
@@ -3608,45 +3480,45 @@
         <v/>
       </c>
       <c r="T40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J41" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M41" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S41" t="str">
@@ -3654,45 +3526,45 @@
         <v/>
       </c>
       <c r="T41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J42" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S42" t="str">
@@ -3700,45 +3572,45 @@
         <v/>
       </c>
       <c r="T42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J43" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M43" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S43" t="str">
@@ -3746,45 +3618,45 @@
         <v/>
       </c>
       <c r="T43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J44" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S44" t="str">
@@ -3792,45 +3664,45 @@
         <v/>
       </c>
       <c r="T44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J45" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S45" t="str">
@@ -3838,45 +3710,45 @@
         <v/>
       </c>
       <c r="T45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J46" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S46" t="str">
@@ -3884,45 +3756,45 @@
         <v/>
       </c>
       <c r="T46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J47" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S47" t="str">
@@ -3930,45 +3802,45 @@
         <v/>
       </c>
       <c r="T47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J48" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S48" t="str">
@@ -3976,45 +3848,45 @@
         <v/>
       </c>
       <c r="T48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V48">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J49" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S49" t="str">
@@ -4022,45 +3894,45 @@
         <v/>
       </c>
       <c r="T49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J50" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S50" t="str">
@@ -4068,45 +3940,45 @@
         <v/>
       </c>
       <c r="T50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J51" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S51" t="str">
@@ -4114,45 +3986,45 @@
         <v/>
       </c>
       <c r="T51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U51">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J52" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M52" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S52" t="str">
@@ -4160,45 +4032,45 @@
         <v/>
       </c>
       <c r="T52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J53" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M53" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S53" t="str">
@@ -4206,45 +4078,45 @@
         <v/>
       </c>
       <c r="T53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J54" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M54" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S54" t="str">
@@ -4252,45 +4124,45 @@
         <v/>
       </c>
       <c r="T54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J55" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M55" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S55" t="str">
@@ -4298,45 +4170,45 @@
         <v/>
       </c>
       <c r="T55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J56" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M56" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S56" t="str">
@@ -4344,45 +4216,45 @@
         <v/>
       </c>
       <c r="T56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J57" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M57" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S57" t="str">
@@ -4390,45 +4262,45 @@
         <v/>
       </c>
       <c r="T57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J58" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M58" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S58" t="str">
@@ -4436,45 +4308,46 @@
         <v/>
       </c>
       <c r="T58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J59" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="L59" s="8"/>
       <c r="M59" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S59" t="str">
@@ -4482,45 +4355,45 @@
         <v/>
       </c>
       <c r="T59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J60" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S60" t="str">
@@ -4528,46 +4401,45 @@
         <v/>
       </c>
       <c r="T60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J61" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="L61" s="8"/>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
       <c r="M61" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S61" t="str">
@@ -4575,45 +4447,45 @@
         <v/>
       </c>
       <c r="T61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J62" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M62" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S62" t="str">
@@ -4621,45 +4493,45 @@
         <v/>
       </c>
       <c r="T62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J63" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M63" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S63" t="str">
@@ -4667,45 +4539,45 @@
         <v/>
       </c>
       <c r="T63">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J64" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M64" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S64" t="str">
@@ -4713,45 +4585,45 @@
         <v/>
       </c>
       <c r="T64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J65" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M65" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="S65" t="str">
@@ -4759,45 +4631,45 @@
         <v/>
       </c>
       <c r="T65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="U65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J66" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="J66:J97" ca="1" si="21">IF(L66="", IF(N66="","",W66+(INDIRECT("Q" &amp; ROW() - 1) - R66)),IF(N66="", "", INDIRECT("Q" &amp; ROW() - 1) - R66))</f>
         <v/>
       </c>
       <c r="M66" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="M66:M97" ca="1" si="22">IF(L66="", IF(W66=0, "", W66), IF(U66 = "", "", IF(U66/T66 = 0, "", U66/T66)))</f>
         <v/>
       </c>
       <c r="O66">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="O66:O97" si="23">IF(N66 = "-", -V66,I66)</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="P66:P73" ca="1" si="24">IF(N66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O66)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="Q66:Q97" si="25">IF(N66="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="R66:R97" ca="1" si="26">IF(P66 = 0, INDIRECT("Q" &amp; ROW() - 1), P66)</f>
         <v>0</v>
       </c>
       <c r="S66" t="str">
@@ -4805,45 +4677,45 @@
         <v/>
       </c>
       <c r="T66">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="T66:T97" si="27">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U66">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="U66:U97" si="28">VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 0 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),0 *LEN($L66)+1,LEN($L66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 1 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),1 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 2 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),2 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 3 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),3 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 4 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),4 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 5 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),5 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 6 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),6 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 7 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),7 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 8 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),8 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 9 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),9 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 10 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),10 *LEN($L66)+1,LEN($L66)))))</f>
         <v>0</v>
       </c>
       <c r="V66">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="V66:V97" si="29">IF(U66 = "", "", U66/T66)</f>
         <v>0</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="W66:W97" ca="1" si="30">IF(N66="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R66)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J67" s="7" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M67" s="8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S67" t="str">
@@ -4851,45 +4723,45 @@
         <v/>
       </c>
       <c r="T67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J68" s="7" t="str">
-        <f t="shared" ref="J68:J99" ca="1" si="30">IF(L68="", IF(N68="","",W68+(INDIRECT("Q" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("Q" &amp; ROW() - 1) - R68))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M68" s="8" t="str">
-        <f t="shared" ref="M68:M99" ca="1" si="31">IF(L68="", IF(W68=0, "", W68), IF(U68 = "", "", IF(U68/T68 = 0, "", U68/T68)))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O99" si="32">IF(N68 = "-", -V68,I68)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P75" ca="1" si="33">IF(N68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O68)))), 0)</f>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q99" si="34">IF(N68="-",1,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R99" ca="1" si="35">IF(P68 = 0, INDIRECT("Q" &amp; ROW() - 1), P68)</f>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S68" t="str">
@@ -4897,45 +4769,45 @@
         <v/>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T99" si="36">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U99" si="37">VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 0 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),0 *LEN($L68)+1,LEN($L68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 1 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),1 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 2 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),2 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 3 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),3 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 4 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),4 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 5 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),5 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 6 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),6 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 7 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),7 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 8 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),8 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 9 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),9 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 10 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),10 *LEN($L68)+1,LEN($L68)))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V99" si="38">IF(U68 = "", "", U68/T68)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" ref="W68:W99" ca="1" si="39">IF(N68="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R68)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J69" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M69" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S69" t="str">
@@ -4943,45 +4815,45 @@
         <v/>
       </c>
       <c r="T69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J70" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M70" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S70" t="str">
@@ -4989,45 +4861,45 @@
         <v/>
       </c>
       <c r="T70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J71" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M71" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S71" t="str">
@@ -5035,45 +4907,45 @@
         <v/>
       </c>
       <c r="T71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J72" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M72" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S72" t="str">
@@ -5081,45 +4953,45 @@
         <v/>
       </c>
       <c r="T72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J73" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M73" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S73" t="str">
@@ -5127,45 +4999,45 @@
         <v/>
       </c>
       <c r="T73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J74" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M74" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="P74:P99" ca="1" si="31">IF(N74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(O74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(O74)))),0)</f>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S74" t="str">
@@ -5173,45 +5045,45 @@
         <v/>
       </c>
       <c r="T74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J75" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M75" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O75">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O75">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S75" t="str">
@@ -5219,45 +5091,45 @@
         <v/>
       </c>
       <c r="T75">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V75">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J76" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M76" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O76">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <f t="shared" ref="P76:P101" ca="1" si="40">IF(N76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(O76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(O76)))),0)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S76" t="str">
@@ -5265,45 +5137,45 @@
         <v/>
       </c>
       <c r="T76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U76">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V76">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J77" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M77" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O77">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O77">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S77" t="str">
@@ -5311,45 +5183,45 @@
         <v/>
       </c>
       <c r="T77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U77">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V77">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J78" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M78" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O78">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O78">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S78" t="str">
@@ -5357,45 +5229,45 @@
         <v/>
       </c>
       <c r="T78">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V78">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J79" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M79" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O79">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O79">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S79" t="str">
@@ -5403,45 +5275,45 @@
         <v/>
       </c>
       <c r="T79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J80" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M80" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O80">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O80">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S80" t="str">
@@ -5449,45 +5321,45 @@
         <v/>
       </c>
       <c r="T80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J81" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M81" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O81">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O81">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S81" t="str">
@@ -5495,45 +5367,45 @@
         <v/>
       </c>
       <c r="T81">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U81">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J82" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M82" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O82">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S82" t="str">
@@ -5541,45 +5413,45 @@
         <v/>
       </c>
       <c r="T82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J83" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M83" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O83">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O83">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S83" t="str">
@@ -5587,45 +5459,45 @@
         <v/>
       </c>
       <c r="T83">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V83">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J84" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M84" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O84">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O84">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S84" t="str">
@@ -5633,45 +5505,45 @@
         <v/>
       </c>
       <c r="T84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V84">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W84" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J85" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M85" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O85">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O85">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S85" t="str">
@@ -5679,45 +5551,45 @@
         <v/>
       </c>
       <c r="T85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V85">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W85" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J86" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M86" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O86">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O86">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S86" t="str">
@@ -5725,45 +5597,45 @@
         <v/>
       </c>
       <c r="T86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U86">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V86">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J87" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M87" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O87">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O87">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S87" t="str">
@@ -5771,45 +5643,45 @@
         <v/>
       </c>
       <c r="T87">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J88" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M88" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O88">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O88">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S88" t="str">
@@ -5817,45 +5689,45 @@
         <v/>
       </c>
       <c r="T88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V88">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J89" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M89" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O89">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S89" t="str">
@@ -5863,45 +5735,45 @@
         <v/>
       </c>
       <c r="T89">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U89">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V89">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J90" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M90" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O90">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O90">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S90" t="str">
@@ -5909,45 +5781,45 @@
         <v/>
       </c>
       <c r="T90">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V90">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J91" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M91" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O91">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O91">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S91" t="str">
@@ -5955,45 +5827,45 @@
         <v/>
       </c>
       <c r="T91">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U91">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J92" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M92" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O92">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O92">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S92" t="str">
@@ -6001,45 +5873,45 @@
         <v/>
       </c>
       <c r="T92">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U92">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V92">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J93" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M93" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O93">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S93" t="str">
@@ -6047,45 +5919,45 @@
         <v/>
       </c>
       <c r="T93">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U93">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V93">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J94" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M94" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O94">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O94">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S94" t="str">
@@ -6093,45 +5965,45 @@
         <v/>
       </c>
       <c r="T94">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U94">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J95" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M95" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O95">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O95">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R95">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S95" t="str">
@@ -6139,45 +6011,45 @@
         <v/>
       </c>
       <c r="T95">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U95">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V95">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J96" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M96" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O96">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O96">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R96">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S96" t="str">
@@ -6185,45 +6057,45 @@
         <v/>
       </c>
       <c r="T96">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J97" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M97" s="8" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O97">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O97">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="34"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R97">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="S97" t="str">
@@ -6231,45 +6103,45 @@
         <v/>
       </c>
       <c r="T97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="U97">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V97">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J98" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="J98:J122" ca="1" si="32">IF(L98="", IF(N98="","",W98+(INDIRECT("Q" &amp; ROW() - 1) - R98)),IF(N98="", "", INDIRECT("Q" &amp; ROW() - 1) - R98))</f>
         <v/>
       </c>
       <c r="M98" s="8" t="str">
+        <f t="shared" ref="M98:M122" ca="1" si="33">IF(L98="", IF(W98=0, "", W98), IF(U98 = "", "", IF(U98/T98 = 0, "", U98/T98)))</f>
+        <v/>
+      </c>
+      <c r="O98">
+        <f t="shared" ref="O98:O122" si="34">IF(N98 = "-", -V98,I98)</f>
+        <v>0</v>
+      </c>
+      <c r="P98">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O98">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="Q98:Q122" si="35">IF(N98="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="R98">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="R98:R122" ca="1" si="36">IF(P98 = 0, INDIRECT("Q" &amp; ROW() - 1), P98)</f>
         <v>0</v>
       </c>
       <c r="S98" t="str">
@@ -6277,45 +6149,45 @@
         <v/>
       </c>
       <c r="T98">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="T98:T122" si="37">IF($C$2 = "", 1, 8000/$C$2)</f>
         <v>8</v>
       </c>
       <c r="U98">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="U98:U122" si="38">VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 0 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),0 *LEN($L98)+1,LEN($L98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 1 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),1 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 2 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),2 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 3 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),3 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 4 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),4 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 5 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),5 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 6 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),6 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 7 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),7 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 8 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),8 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 9 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),9 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 10 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),10 *LEN($L98)+1,LEN($L98)))))</f>
         <v>0</v>
       </c>
       <c r="V98">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="V98:V122" si="39">IF(U98 = "", "", U98/T98)</f>
         <v>0</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ref="W98:W122" ca="1" si="40">IF(N98="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R98)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J99" s="7" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="M99" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O99">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="O99">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R99">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S99" t="str">
@@ -6323,45 +6195,45 @@
         <v/>
       </c>
       <c r="T99">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U99">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W99" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J100" s="7" t="str">
-        <f t="shared" ref="J100:J124" ca="1" si="41">IF(L100="", IF(N100="","",W100+(INDIRECT("Q" &amp; ROW() - 1) - R100)),IF(N100="", "", INDIRECT("Q" &amp; ROW() - 1) - R100))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="M100" s="8" t="str">
-        <f t="shared" ref="M100:M124" ca="1" si="42">IF(L100="", IF(W100=0, "", W100), IF(U100 = "", "", IF(U100/T100 = 0, "", U100/T100)))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="O100">
-        <f t="shared" ref="O100:O124" si="43">IF(N100 = "-", -V100,I100)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="P100:P122" ca="1" si="41">IF(N100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O100)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q100">
-        <f t="shared" ref="Q100:Q124" si="44">IF(N100="-",1,0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="shared" ref="R100:R124" ca="1" si="45">IF(P100 = 0, INDIRECT("Q" &amp; ROW() - 1), P100)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S100" t="str">
@@ -6369,45 +6241,45 @@
         <v/>
       </c>
       <c r="T100">
-        <f t="shared" ref="T100:T124" si="46">IF($C$2 = "", 1, 8000/$C$2)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U100">
-        <f t="shared" ref="U100:U124" si="47">VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 0 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),0 *LEN($L100)+1,LEN($L100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 1 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),1 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 2 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),2 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 3 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),3 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 4 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),4 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 5 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),5 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 6 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),6 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 7 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),7 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 8 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),8 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 9 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),9 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 10 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),10 *LEN($L100)+1,LEN($L100)))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V100">
-        <f t="shared" ref="V100:V124" si="48">IF(U100 = "", "", U100/T100)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" ref="W100:W124" ca="1" si="49">IF(N100="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - R100)/$C$2, 0), 1) * $C$2)</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J101" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M101" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O101">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M101" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O101">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S101" t="str">
@@ -6415,45 +6287,45 @@
         <v/>
       </c>
       <c r="T101">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U101">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W101" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J102" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M102" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O102">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P102">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M102" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O102">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <f t="shared" ref="P102:P124" ca="1" si="50">IF(N102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O102)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R102">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S102" t="str">
@@ -6461,45 +6333,45 @@
         <v/>
       </c>
       <c r="T102">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U102">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W102" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J103" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M103" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O103">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P103">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M103" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O103">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R103">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S103" t="str">
@@ -6507,45 +6379,45 @@
         <v/>
       </c>
       <c r="T103">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U103">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W103" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J104" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M104" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O104">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M104" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O104">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R104">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S104" t="str">
@@ -6553,45 +6425,45 @@
         <v/>
       </c>
       <c r="T104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U104">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W104" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J105" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M105" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O105">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P105">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M105" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O105">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R105">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S105" t="str">
@@ -6599,45 +6471,45 @@
         <v/>
       </c>
       <c r="T105">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U105">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V105">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W105" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J106" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M106" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O106">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P106">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M106" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O106">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P106">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R106">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S106" t="str">
@@ -6645,45 +6517,45 @@
         <v/>
       </c>
       <c r="T106">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U106">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W106" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J107" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M107" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O107">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P107">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M107" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O107">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S107" t="str">
@@ -6691,45 +6563,45 @@
         <v/>
       </c>
       <c r="T107">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U107">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W107" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J108" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M108" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O108">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M108" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O108">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R108">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S108" t="str">
@@ -6737,45 +6609,45 @@
         <v/>
       </c>
       <c r="T108">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U108">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W108" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J109" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M109" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O109">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M109" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O109">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R109">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S109" t="str">
@@ -6783,45 +6655,45 @@
         <v/>
       </c>
       <c r="T109">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U109">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W109" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J110" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M110" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O110">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M110" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O110">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S110" t="str">
@@ -6829,45 +6701,45 @@
         <v/>
       </c>
       <c r="T110">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U110">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W110" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J111" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M111" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O111">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M111" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O111">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R111">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S111" t="str">
@@ -6875,45 +6747,45 @@
         <v/>
       </c>
       <c r="T111">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U111">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V111">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W111" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J112" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M112" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O112">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M112" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O112">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R112">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S112" t="str">
@@ -6921,45 +6793,45 @@
         <v/>
       </c>
       <c r="T112">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U112">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V112">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W112" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J113" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M113" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O113">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M113" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O113">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R113">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S113" t="str">
@@ -6967,45 +6839,45 @@
         <v/>
       </c>
       <c r="T113">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U113">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V113">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W113" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J114" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M114" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O114">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M114" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O114">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R114">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S114" t="str">
@@ -7013,45 +6885,45 @@
         <v/>
       </c>
       <c r="T114">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U114">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W114" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J115" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M115" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O115">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M115" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O115">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R115">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S115" t="str">
@@ -7059,45 +6931,45 @@
         <v/>
       </c>
       <c r="T115">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U115">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V115">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W115" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J116" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M116" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O116">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M116" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O116">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P116">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R116">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S116" t="str">
@@ -7105,45 +6977,45 @@
         <v/>
       </c>
       <c r="T116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W116" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J117" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M117" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O117">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M117" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O117">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P117">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R117">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S117" t="str">
@@ -7151,45 +7023,45 @@
         <v/>
       </c>
       <c r="T117">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U117">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V117">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W117" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J118" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M118" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O118">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M118" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O118">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R118">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S118" t="str">
@@ -7197,45 +7069,45 @@
         <v/>
       </c>
       <c r="T118">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U118">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V118">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W118" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J119" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M119" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O119">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M119" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O119">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P119">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R119">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S119" t="str">
@@ -7243,45 +7115,45 @@
         <v/>
       </c>
       <c r="T119">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U119">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W119" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J120" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M120" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O120">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M120" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O120">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R120">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S120" t="str">
@@ -7289,45 +7161,45 @@
         <v/>
       </c>
       <c r="T120">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U120">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V120">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W120" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J121" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M121" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O121">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P121">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M121" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O121">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P121">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R121">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S121" t="str">
@@ -7335,45 +7207,45 @@
         <v/>
       </c>
       <c r="T121">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U121">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V121">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W121" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="10:23" x14ac:dyDescent="0.3">
       <c r="J122" s="7" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M122" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O122">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M122" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O122">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R122">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="S122" t="str">
@@ -7381,167 +7253,52 @@
         <v/>
       </c>
       <c r="T122">
-        <f t="shared" si="46"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U122">
-        <f t="shared" si="47"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V122">
-        <f t="shared" si="48"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W122" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J123" s="7" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M123" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O123">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <f t="shared" ca="1" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <f t="shared" ca="1" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S123" t="str">
-        <f>IF(H123="","",VLOOKUP(H123,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
-      </c>
-      <c r="T123">
-        <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="U123">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="W123" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J124" s="7" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M124" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O124">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <f t="shared" ca="1" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <f t="shared" ca="1" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S124" t="str">
-        <f>IF(H124="","",VLOOKUP(H124,'Вода SKU'!$A$1:$B$150,2,0))</f>
-        <v/>
-      </c>
-      <c r="T124">
-        <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="U124">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="V124">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="W124" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J18 J21:J1048576">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>0</formula>
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
       <formula>-10000</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B124">
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>$B29&lt;&gt;$S29</formula>
+  <conditionalFormatting sqref="B27:B122">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$B27&lt;&gt;$S27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>$B29&lt;&gt;$S29</formula>
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$B27&lt;&gt;$S27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J18 J21:J124">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="J2:J122">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18 B21:B28">
-    <cfRule type="expression" dxfId="11" priority="6">
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$C2&lt;&gt;$P2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$C2&lt;&gt;$P2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J20">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>100000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
-      <formula>-10000</formula>
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J20">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$C19&lt;&gt;$P19</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$C19&lt;&gt;$P19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7556,7 +7313,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B29:B124</xm:sqref>
+          <xm:sqref>B27:B122</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -7565,25 +7322,25 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H29:H61</xm:sqref>
+          <xm:sqref>H27:H59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" xr:uid="{04425E3D-688A-4179-AA6C-A055F683348F}">
           <x14:formula1>
-            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
+            <xm:f>'Типы варок'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B2:B28</xm:sqref>
+          <xm:sqref>B2:B26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D068F6F3-7D2A-46ED-8BD5-4F1459D0BEC3}">
           <x14:formula1>
-            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Вода SKU'!#REF!</xm:f>
+            <xm:f>'Вода SKU'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H28</xm:sqref>
+          <xm:sqref>H2:H26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7595,11 +7352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7628,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -7661,37 +7418,37 @@
         <v>9</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -7700,19 +7457,19 @@
         <v/>
       </c>
       <c r="B2" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="19">
         <v>850</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="19">
         <v>52</v>
@@ -7772,19 +7529,19 @@
         <v/>
       </c>
       <c r="B3" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="19">
         <v>850</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="19">
         <v>21</v>
@@ -7843,19 +7600,19 @@
         <v/>
       </c>
       <c r="B4" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="19">
         <v>850</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="19">
         <v>761</v>
@@ -7914,19 +7671,19 @@
         <v/>
       </c>
       <c r="B5" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="19">
         <v>850</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="19">
         <v>12</v>
@@ -7985,19 +7742,19 @@
         <v/>
       </c>
       <c r="B6" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21">
         <v>850</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="21">
         <v>4</v>
@@ -8056,29 +7813,29 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8127,19 +7884,19 @@
         <v/>
       </c>
       <c r="B8" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21">
         <v>850</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="21">
         <v>830</v>
@@ -8198,19 +7955,19 @@
         <v/>
       </c>
       <c r="B9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21">
         <v>850</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="21">
         <v>20</v>
@@ -8269,29 +8026,29 @@
         <v/>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8340,19 +8097,19 @@
         <v/>
       </c>
       <c r="B11" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23">
         <v>850</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="23">
         <v>850</v>
@@ -8411,29 +8168,29 @@
         <v/>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8482,19 +8239,19 @@
         <v/>
       </c>
       <c r="B13" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21">
         <v>850</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21">
         <v>504</v>
@@ -8553,19 +8310,19 @@
         <v/>
       </c>
       <c r="B14" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="23">
         <v>850</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="23">
         <v>127</v>
@@ -8624,19 +8381,19 @@
         <v/>
       </c>
       <c r="B15" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21">
         <v>850</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="21">
         <v>219</v>
@@ -8695,29 +8452,29 @@
         <v/>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -8766,19 +8523,19 @@
         <v/>
       </c>
       <c r="B17" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="19">
         <v>850</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17" s="19">
         <v>300</v>
@@ -8837,19 +8594,19 @@
         <v/>
       </c>
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="21">
         <v>850</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="H18" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="21">
         <v>348</v>
@@ -8908,19 +8665,19 @@
         <v/>
       </c>
       <c r="B19" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="21">
         <v>850</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="H19" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" s="21">
         <v>202</v>
@@ -8979,29 +8736,29 @@
         <v/>
       </c>
       <c r="B20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K20" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M20" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9050,19 +8807,19 @@
         <v/>
       </c>
       <c r="B21" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="19">
         <v>850</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="19">
         <v>400</v>
@@ -9121,19 +8878,19 @@
         <v/>
       </c>
       <c r="B22" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="19">
         <v>850</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="19">
         <v>450</v>
@@ -9192,29 +8949,29 @@
         <v/>
       </c>
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M23" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -13863,7 +13620,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" xr:uid="{ADB8AAD9-DFD5-403A-9CC0-EC8E237FA686}">
           <x14:formula1>
-            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
+            <xm:f>'Типы варок'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -13872,7 +13629,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{EEF82D69-723D-4B35-986A-077BE96E4CDA}">
           <x14:formula1>
-            <xm:f>'C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\[2021-01-19 План по варкам.xlsx]Соль SKU'!#REF!</xm:f>
+            <xm:f>'Соль SKU'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -13924,210 +13681,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -14152,290 +13909,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -14460,42 +14217,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/schedule_maker/data/sample_boiling_plan.xlsx
+++ b/app/schedule_maker/data/sample_boiling_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\research\akadaner\Реальные расписания\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\schedule_maker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB24AF-66AE-4479-A5B4-4351287FE291}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB456F-D0AC-4F71-9E67-797FD648D379}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7356,7 +7356,7 @@
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7883,8 +7883,8 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>58</v>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="21">
         <v>850</v>
@@ -7895,8 +7895,8 @@
       <c r="E8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>86</v>
+      <c r="H8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="I8" s="21">
         <v>830</v>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="S8" t="str">
         <f>IF(H8="","",VLOOKUP(H8,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>2.7, Альче</v>
+        <v>2.7, Альче, без лактозы</v>
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
@@ -7954,8 +7954,8 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>58</v>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="21">
         <v>850</v>
@@ -7966,8 +7966,8 @@
       <c r="E9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>85</v>
+      <c r="H9" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="I9" s="21">
         <v>20</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="S9" t="str">
         <f>IF(H9="","",VLOOKUP(H9,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>2.7, Альче</v>
+        <v>2.7, Альче, без лактозы</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
@@ -13670,7 +13670,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13898,7 +13898,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B36"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14206,7 +14206,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
